--- a/data/siRNA_bench/Invivogen_siRNA_PAX3_jbst.xlsx
+++ b/data/siRNA_bench/Invivogen_siRNA_PAX3_jbst.xlsx
@@ -523,12 +523,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RNAi_2</t>
+          <t>RNAi_1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ATTTGTCTCGGATTTCCCAGC</t>
+          <t>AAGTTTGGTACGAGTCTGGGC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['ATTTGTCTCGGATTTCCCAGC']</t>
+          <t>['AAGTTTGGTACGAGTCTGGGC']</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>GCTGGGAAATCCGAGACAAAT</t>
+          <t>GCCCAGACTCGTACCAAACTT</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -594,18 +594,18 @@
         <v>6</v>
       </c>
       <c r="Q2" t="n">
-        <v>25.05</v>
+        <v>52.38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RNAi_1</t>
+          <t>RNAi_5</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AAGTTTGGTACGAGTCTGGGC</t>
+          <t>AACTAAATTCGGTACTATGTC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['AAGTTTGGTACGAGTCTGGGC']</t>
+          <t>['AACTAAATTCGGTACTATGTC']</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -648,15 +648,15 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>['GTAC']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0.1904761904761905</v>
+        <v>0</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>GCCCAGACTCGTACCAAACTT</t>
+          <t>GACATAGTACCGAATTTAGTT</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -668,21 +668,21 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>41.1</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RNAi_4</t>
+          <t>RNAi_2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TTATATCGCCTTGGGCATTGC</t>
+          <t>ATTTGTCTCGGATTTCCCAGC</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['TTATATCGCCTTGGGCATTGC']</t>
+          <t>['ATTTGTCTCGGATTTCCCAGC']</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -725,15 +725,15 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>['ATAT', 'TATA']</t>
+          <t>[('GGA', 'CCT')]</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>GCAATGCCCAAGGCGATATAA</t>
+          <t>GCTGGGAAATCCGAGACAAAT</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -748,18 +748,18 @@
         <v>6</v>
       </c>
       <c r="Q4" t="n">
-        <v>28.81</v>
+        <v>47.62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RNAi_5</t>
+          <t>RNAi_3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AACTAAATTCGGTACTATGTC</t>
+          <t>TTCACTTACGCGATATCTGGC</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -784,7 +784,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['AACTAAATTCGGTACTATGTC']</t>
+          <t>['TTCACTTACGCGATATCTGGC']</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -802,15 +802,15 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>['AATT', 'GTAC']</t>
+          <t>[('GAT', 'CTA')]</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>GACATAGTACCGAATTTAGTT</t>
+          <t>GCCAGATATCGCGTAAGTGAA</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -822,21 +822,21 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q5" t="n">
-        <v>18.29</v>
+        <v>47.62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RNAi_3</t>
+          <t>RNAi_4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TTCACTTACGCGATATCTGGC</t>
+          <t>TTATATCGCCTTGGGCATTGC</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['TTCACTTACGCGATATCTGGC']</t>
+          <t>['TTATATCGCCTTGGGCATTGC']</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -879,15 +879,15 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>['GATATC', 'ATAT', 'CGCG']</t>
+          <t>[('GCC', 'CGG'), ('GCA', 'CGT')]</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>GCCAGATATCGCGTAAGTGAA</t>
+          <t>GCAATGCCCAAGGCGATATAA</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -902,7 +902,7 @@
         <v>6</v>
       </c>
       <c r="Q6" t="n">
-        <v>25.05</v>
+        <v>47.62</v>
       </c>
     </row>
   </sheetData>
